--- a/QuanLyNhaDat_version2/bin/Debug/import.xlsx
+++ b/QuanLyNhaDat_version2/bin/Debug/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Do An C#\QuanLyNhaDat_version2\QuanLyNhaDat_version2\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="cbLoaiNha">Sheet2!$A$1:$A$4</definedName>
+    <definedName name="cbMucDichSuDung">Sheet2!$B$1:$B$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>999 Kha Vạn Cân, Phường Linh Tây, Quận Thủ Đức</t>
   </si>
@@ -71,9 +76,6 @@
     <t>Lê Thị Đào</t>
   </si>
   <si>
-    <t>1 Võ Văn Ngân, Phường Linh Tây, Quận THủ Đức</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Hoa</t>
   </si>
   <si>
@@ -105,6 +107,12 @@
   </si>
   <si>
     <t>giaTien</t>
+  </si>
+  <si>
+    <t>1 Võ Văn Ngân, Phường Linh Tây, Quận Thủ Đức</t>
+  </si>
+  <si>
+    <t>Nhà cấp 1</t>
   </si>
 </sst>
 </file>
@@ -429,11 +437,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
@@ -442,22 +452,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -562,13 +572,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -582,13 +592,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -602,13 +612,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -618,6 +628,59 @@
       </c>
       <c r="F9">
         <v>1230000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>cbLoaiNha</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>cbMucDichSuDung</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
